--- a/Coursework/MLP GS Results.xlsx
+++ b/Coursework/MLP GS Results.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ayliah/Documents/GitHub/INM427-Neural-Computing/Coursework/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AE9C37-10DB-7343-91BC-4FC0774F2256}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25600" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -121,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,12 +145,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -174,17 +186,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +287,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,6 +339,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,14 +532,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +597,7 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -529,27 +607,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.39355365435283</v>
+        <v>17.393553654352829</v>
       </c>
       <c r="C2">
-        <v>1.813797987253423</v>
+        <v>1.8137979872534229</v>
       </c>
       <c r="D2">
-        <v>0.1322630246480306</v>
+        <v>0.13226302464803061</v>
       </c>
       <c r="E2">
-        <v>0.002496289981272294</v>
+        <v>2.4962899812722939E-3</v>
       </c>
       <c r="F2">
         <v>256</v>
       </c>
       <c r="G2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H2">
         <v>500</v>
@@ -564,45 +642,45 @@
         <v>16</v>
       </c>
       <c r="L2">
-        <v>0.8567679040119985</v>
+        <v>0.85676790401199854</v>
       </c>
       <c r="M2">
-        <v>0.851678229889368</v>
+        <v>0.85167822988936803</v>
       </c>
       <c r="N2">
-        <v>0.857678604912807</v>
+        <v>0.85767860491280701</v>
       </c>
       <c r="O2">
         <v>0.8553749129380579</v>
       </c>
       <c r="P2">
-        <v>0.002640257967767086</v>
+        <v>2.6402579677670861E-3</v>
       </c>
       <c r="Q2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.95727928479512</v>
+        <v>17.957279284795121</v>
       </c>
       <c r="C3">
-        <v>5.33518205105223</v>
+        <v>5.3351820510522296</v>
       </c>
       <c r="D3">
-        <v>0.1307506561279297</v>
+        <v>0.13075065612792969</v>
       </c>
       <c r="E3">
-        <v>0.001349685996943663</v>
+        <v>1.349685996943663E-3</v>
       </c>
       <c r="F3">
         <v>256</v>
       </c>
       <c r="G3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H3">
         <v>500</v>
@@ -617,25 +695,25 @@
         <v>17</v>
       </c>
       <c r="L3">
-        <v>0.8415823022122235</v>
+        <v>0.84158230221222352</v>
       </c>
       <c r="M3">
-        <v>0.8574910931933246</v>
+        <v>0.85749109319332462</v>
       </c>
       <c r="N3">
         <v>0.8588036752297018</v>
       </c>
       <c r="O3">
-        <v>0.8526256902117501</v>
+        <v>0.85262569021175005</v>
       </c>
       <c r="P3">
-        <v>0.007827218824146874</v>
+        <v>7.8272188241468744E-3</v>
       </c>
       <c r="Q3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -643,19 +721,19 @@
         <v>20.65384125709534</v>
       </c>
       <c r="C4">
-        <v>4.745307791400209</v>
+        <v>4.7453077914002089</v>
       </c>
       <c r="D4">
-        <v>0.1402726173400879</v>
+        <v>0.14027261734008789</v>
       </c>
       <c r="E4">
-        <v>0.01210227658063208</v>
+        <v>1.2102276580632079E-2</v>
       </c>
       <c r="F4">
         <v>256</v>
       </c>
       <c r="G4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H4">
         <v>500</v>
@@ -670,39 +748,39 @@
         <v>18</v>
       </c>
       <c r="L4">
-        <v>0.8477690288713911</v>
+        <v>0.84776902887139105</v>
       </c>
       <c r="M4">
-        <v>0.8567410463153947</v>
+        <v>0.85674104631539472</v>
       </c>
       <c r="N4">
-        <v>0.8591786986686668</v>
+        <v>0.85917869866866681</v>
       </c>
       <c r="O4">
-        <v>0.8545629246184842</v>
+        <v>0.85456292461848415</v>
       </c>
       <c r="P4">
-        <v>0.004906003248784829</v>
+        <v>4.9060032487848286E-3</v>
       </c>
       <c r="Q4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.502786080042521</v>
+        <v>7.5027860800425206</v>
       </c>
       <c r="C5">
-        <v>1.052954330505394</v>
+        <v>1.0529543305053941</v>
       </c>
       <c r="D5">
-        <v>0.1322370370229085</v>
+        <v>0.13223703702290851</v>
       </c>
       <c r="E5">
-        <v>0.001338639202153143</v>
+        <v>1.3386392021531429E-3</v>
       </c>
       <c r="F5">
         <v>256</v>
@@ -723,39 +801,39 @@
         <v>19</v>
       </c>
       <c r="L5">
-        <v>0.8458942632170978</v>
+        <v>0.84589426321709782</v>
       </c>
       <c r="M5">
-        <v>0.8511156947309206</v>
+        <v>0.85111569473092064</v>
       </c>
       <c r="N5">
-        <v>0.8499906244140258</v>
+        <v>0.84999062441402584</v>
       </c>
       <c r="O5">
-        <v>0.8490001941206815</v>
+        <v>0.84900019412068151</v>
       </c>
       <c r="P5">
-        <v>0.002243739570132301</v>
+        <v>2.243739570132301E-3</v>
       </c>
       <c r="Q5">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.757920106252035</v>
+        <v>9.7579201062520351</v>
       </c>
       <c r="C6">
-        <v>2.160069926844785</v>
+        <v>2.1600699268447849</v>
       </c>
       <c r="D6">
-        <v>0.1323169867197672</v>
+        <v>0.13231698671976719</v>
       </c>
       <c r="E6">
-        <v>0.002448371310279333</v>
+        <v>2.448371310279333E-3</v>
       </c>
       <c r="F6">
         <v>256</v>
@@ -776,25 +854,25 @@
         <v>20</v>
       </c>
       <c r="L6">
-        <v>0.8548931383577053</v>
+        <v>0.85489313835770531</v>
       </c>
       <c r="M6">
-        <v>0.8513032064504031</v>
+        <v>0.85130320645040314</v>
       </c>
       <c r="N6">
-        <v>0.8483030189386837</v>
+        <v>0.84830301893868365</v>
       </c>
       <c r="O6">
-        <v>0.8514997879155973</v>
+        <v>0.85149978791559733</v>
       </c>
       <c r="P6">
-        <v>0.002693993528027986</v>
+        <v>2.6939935280279859E-3</v>
       </c>
       <c r="Q6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -802,13 +880,13 @@
         <v>12.62950579325358</v>
       </c>
       <c r="C7">
-        <v>4.725736702462237</v>
+        <v>4.7257367024622372</v>
       </c>
       <c r="D7">
-        <v>0.1327666441599528</v>
+        <v>0.13276664415995279</v>
       </c>
       <c r="E7">
-        <v>0.001934032687107686</v>
+        <v>1.9340326871076861E-3</v>
       </c>
       <c r="F7">
         <v>256</v>
@@ -832,42 +910,42 @@
         <v>0.8560179977502812</v>
       </c>
       <c r="M7">
-        <v>0.8599287455465967</v>
+        <v>0.85992874554659671</v>
       </c>
       <c r="N7">
-        <v>0.857678604912807</v>
+        <v>0.85767860491280701</v>
       </c>
       <c r="O7">
-        <v>0.857875116069895</v>
+        <v>0.85787511606989497</v>
       </c>
       <c r="P7">
-        <v>0.001602591559057118</v>
+        <v>1.6025915590571181E-3</v>
       </c>
       <c r="Q7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.20061961809794</v>
+        <v>26.200619618097939</v>
       </c>
       <c r="C8">
-        <v>4.020608290876688</v>
+        <v>4.0206082908766883</v>
       </c>
       <c r="D8">
-        <v>0.1484069029490153</v>
+        <v>0.14840690294901529</v>
       </c>
       <c r="E8">
-        <v>0.01234400554645913</v>
+        <v>1.234400554645913E-2</v>
       </c>
       <c r="F8">
         <v>300</v>
       </c>
       <c r="G8">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H8">
         <v>500</v>
@@ -885,22 +963,22 @@
         <v>0.8582677165354331</v>
       </c>
       <c r="M8">
-        <v>0.848865554097131</v>
+        <v>0.84886555409713105</v>
       </c>
       <c r="N8">
         <v>0.8588036752297018</v>
       </c>
       <c r="O8">
-        <v>0.855312315287422</v>
+        <v>0.85531231528742202</v>
       </c>
       <c r="P8">
-        <v>0.004563796687990647</v>
+        <v>4.5637966879906473E-3</v>
       </c>
       <c r="Q8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -908,19 +986,19 @@
         <v>28.29984148343404</v>
       </c>
       <c r="C9">
-        <v>1.397604785593357</v>
+        <v>1.3976047855933571</v>
       </c>
       <c r="D9">
-        <v>0.2902185916900635</v>
+        <v>0.29021859169006348</v>
       </c>
       <c r="E9">
-        <v>0.1543167831706032</v>
+        <v>0.15431678317060321</v>
       </c>
       <c r="F9">
         <v>300</v>
       </c>
       <c r="G9">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H9">
         <v>500</v>
@@ -935,36 +1013,36 @@
         <v>23</v>
       </c>
       <c r="L9">
-        <v>0.8603299587551556</v>
+        <v>0.86032995875515561</v>
       </c>
       <c r="M9">
-        <v>0.8563660228764298</v>
+        <v>0.85636602287642982</v>
       </c>
       <c r="N9">
-        <v>0.8584286517907369</v>
+        <v>0.85842865179073691</v>
       </c>
       <c r="O9">
-        <v>0.8583748778074408</v>
+        <v>0.85837487780744082</v>
       </c>
       <c r="P9">
-        <v>0.001618716702333888</v>
+        <v>1.618716702333888E-3</v>
       </c>
       <c r="Q9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.72277196248372</v>
+        <v>28.722771962483719</v>
       </c>
       <c r="C10">
-        <v>1.783533645028507</v>
+        <v>1.7835336450285071</v>
       </c>
       <c r="D10">
-        <v>0.2626741727193196</v>
+        <v>0.26267417271931959</v>
       </c>
       <c r="E10">
         <v>0.121242539080856</v>
@@ -973,7 +1051,7 @@
         <v>300</v>
       </c>
       <c r="G10">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H10">
         <v>500</v>
@@ -988,39 +1066,39 @@
         <v>24</v>
       </c>
       <c r="L10">
-        <v>0.843644544431946</v>
+        <v>0.84364454443194603</v>
       </c>
       <c r="M10">
-        <v>0.8346146634164635</v>
+        <v>0.83461466341646351</v>
       </c>
       <c r="N10">
-        <v>0.8574910931933246</v>
+        <v>0.85749109319332462</v>
       </c>
       <c r="O10">
-        <v>0.8452501003472447</v>
+        <v>0.84525010034724468</v>
       </c>
       <c r="P10">
-        <v>0.009408014922811908</v>
+        <v>9.4080149228119078E-3</v>
       </c>
       <c r="Q10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.44872530301412</v>
+        <v>9.4487253030141201</v>
       </c>
       <c r="C11">
-        <v>0.8308869017575558</v>
+        <v>0.83088690175755575</v>
       </c>
       <c r="D11">
-        <v>0.1419320106506348</v>
+        <v>0.14193201065063479</v>
       </c>
       <c r="E11">
-        <v>0.00666266925092594</v>
+        <v>6.6626692509259402E-3</v>
       </c>
       <c r="F11">
         <v>300</v>
@@ -1044,36 +1122,36 @@
         <v>0.8560179977502812</v>
       </c>
       <c r="M11">
-        <v>0.8481155072192011</v>
+        <v>0.84811550721920115</v>
       </c>
       <c r="N11">
-        <v>0.8514907181698856</v>
+        <v>0.85149071816988564</v>
       </c>
       <c r="O11">
-        <v>0.8518747410464561</v>
+        <v>0.85187474104645611</v>
       </c>
       <c r="P11">
-        <v>0.003237585965473813</v>
+        <v>3.2375859654738132E-3</v>
       </c>
       <c r="Q11">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.538322607676188</v>
+        <v>9.5383226076761876</v>
       </c>
       <c r="C12">
-        <v>0.9078630667336223</v>
+        <v>0.90786306673362227</v>
       </c>
       <c r="D12">
         <v>0.1445763111114502</v>
       </c>
       <c r="E12">
-        <v>0.01300527576342701</v>
+        <v>1.3005275763427009E-2</v>
       </c>
       <c r="F12">
         <v>300</v>
@@ -1094,30 +1172,30 @@
         <v>26</v>
       </c>
       <c r="L12">
-        <v>0.8535808023997</v>
+        <v>0.85358080239970002</v>
       </c>
       <c r="M12">
-        <v>0.8471779486217889</v>
+        <v>0.84717794862178886</v>
       </c>
       <c r="N12">
-        <v>0.852053253328333</v>
+        <v>0.85205325332833304</v>
       </c>
       <c r="O12">
-        <v>0.850937334783274</v>
+        <v>0.85093733478327405</v>
       </c>
       <c r="P12">
-        <v>0.002730456588769588</v>
+        <v>2.7304565887695878E-3</v>
       </c>
       <c r="Q12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.16852569580078</v>
+        <v>12.168525695800779</v>
       </c>
       <c r="C13">
         <v>2.730886830008235</v>
@@ -1150,42 +1228,42 @@
         <v>0.8670791151106112</v>
       </c>
       <c r="M13">
-        <v>0.8483030189386837</v>
+        <v>0.84830301893868365</v>
       </c>
       <c r="N13">
-        <v>0.8574910931933246</v>
+        <v>0.85749109319332462</v>
       </c>
       <c r="O13">
-        <v>0.8576244090808731</v>
+        <v>0.85762440908087312</v>
       </c>
       <c r="P13">
-        <v>0.007665888802949192</v>
+        <v>7.6658888029491924E-3</v>
       </c>
       <c r="Q13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.32297507921855</v>
+        <v>20.322975079218551</v>
       </c>
       <c r="C14">
-        <v>2.074795414594045</v>
+        <v>2.0747954145940448</v>
       </c>
       <c r="D14">
         <v>0.1336153348286947</v>
       </c>
       <c r="E14">
-        <v>0.001378138174916194</v>
+        <v>1.378138174916194E-3</v>
       </c>
       <c r="F14">
         <v>350</v>
       </c>
       <c r="G14">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H14">
         <v>500</v>
@@ -1200,89 +1278,89 @@
         <v>28</v>
       </c>
       <c r="L14">
-        <v>0.8640794900637421</v>
+        <v>0.86407949006374207</v>
       </c>
       <c r="M14">
-        <v>0.8490530658166136</v>
+        <v>0.84905306581661355</v>
       </c>
       <c r="N14">
         <v>0.8601162572660791</v>
       </c>
       <c r="O14">
-        <v>0.8577496043821449</v>
+        <v>0.85774960438214487</v>
       </c>
       <c r="P14">
-        <v>0.006358676005713167</v>
+        <v>6.3586760057131667E-3</v>
       </c>
       <c r="Q14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1">
+    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>26.01058228810628</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="3">
+        <v>26.010582288106281</v>
+      </c>
+      <c r="C15" s="3">
         <v>4.556548529822618</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.1397900581359863</v>
       </c>
-      <c r="E15">
-        <v>0.004332835342153831</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="3">
+        <v>4.3328353421538306E-3</v>
+      </c>
+      <c r="F15" s="3">
         <v>350</v>
       </c>
-      <c r="G15">
-        <v>0.001</v>
-      </c>
-      <c r="H15">
-        <v>500</v>
-      </c>
-      <c r="I15">
+      <c r="G15" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>500</v>
+      </c>
+      <c r="I15" s="3">
         <v>0.4</v>
       </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>0.8637045369328834</v>
       </c>
-      <c r="M15">
-        <v>0.8537408588036752</v>
-      </c>
-      <c r="N15">
+      <c r="M15" s="3">
+        <v>0.85374085880367523</v>
+      </c>
+      <c r="N15" s="3">
         <v>0.8601162572660791</v>
       </c>
-      <c r="O15">
-        <v>0.859187217667546</v>
-      </c>
-      <c r="P15">
-        <v>0.004120360534172332</v>
-      </c>
-      <c r="Q15">
+      <c r="O15" s="3">
+        <v>0.85918721766754602</v>
+      </c>
+      <c r="P15" s="3">
+        <v>4.1203605341723322E-3</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.98865135510762</v>
+        <v>30.988651355107621</v>
       </c>
       <c r="C16">
-        <v>6.494877375898159</v>
+        <v>6.4948773758981586</v>
       </c>
       <c r="D16">
-        <v>0.2112797101338705</v>
+        <v>0.21127971013387051</v>
       </c>
       <c r="E16">
         <v>0.1015758690355472</v>
@@ -1291,7 +1369,7 @@
         <v>350</v>
       </c>
       <c r="G16">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H16">
         <v>500</v>
@@ -1306,25 +1384,25 @@
         <v>30</v>
       </c>
       <c r="L16">
-        <v>0.8413948256467941</v>
+        <v>0.84139482564679413</v>
       </c>
       <c r="M16">
-        <v>0.8531783236452278</v>
+        <v>0.85317832364522783</v>
       </c>
       <c r="N16">
-        <v>0.8634914682167636</v>
+        <v>0.86349146821676359</v>
       </c>
       <c r="O16">
-        <v>0.8526882058362618</v>
+        <v>0.85268820583626181</v>
       </c>
       <c r="P16">
-        <v>0.009027571279742441</v>
+        <v>9.0275712797424409E-3</v>
       </c>
       <c r="Q16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1335,7 +1413,7 @@
         <v>1.813868456184536</v>
       </c>
       <c r="D17">
-        <v>0.267202615737915</v>
+        <v>0.26720261573791498</v>
       </c>
       <c r="E17">
         <v>0.1011806967641812</v>
@@ -1359,39 +1437,39 @@
         <v>31</v>
       </c>
       <c r="L17">
-        <v>0.8563929508811399</v>
+        <v>0.85639295088113987</v>
       </c>
       <c r="M17">
-        <v>0.848865554097131</v>
+        <v>0.84886555409713105</v>
       </c>
       <c r="N17">
-        <v>0.8518657416088505</v>
+        <v>0.85186574160885054</v>
       </c>
       <c r="O17">
-        <v>0.8523747488623737</v>
+        <v>0.85237474886237374</v>
       </c>
       <c r="P17">
-        <v>0.003094052560863726</v>
+        <v>3.094052560863726E-3</v>
       </c>
       <c r="Q17">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.32532676060995</v>
+        <v>14.325326760609951</v>
       </c>
       <c r="C18">
-        <v>0.3647066190550792</v>
+        <v>0.36470661905507917</v>
       </c>
       <c r="D18">
-        <v>0.2026013533274333</v>
+        <v>0.20260135332743329</v>
       </c>
       <c r="E18">
-        <v>0.00559758226178694</v>
+        <v>5.5975822617869396E-3</v>
       </c>
       <c r="F18">
         <v>350</v>
@@ -1415,22 +1493,22 @@
         <v>0.8582677165354331</v>
       </c>
       <c r="M18">
-        <v>0.8541158822426401</v>
+        <v>0.85411588224264012</v>
       </c>
       <c r="N18">
-        <v>0.8571160697543596</v>
+        <v>0.85711606975435961</v>
       </c>
       <c r="O18">
-        <v>0.856499889510811</v>
+        <v>0.85649988951081102</v>
       </c>
       <c r="P18">
-        <v>0.001750083915722845</v>
+        <v>1.7500839157228449E-3</v>
       </c>
       <c r="Q18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1438,10 +1516,10 @@
         <v>14.01571758588155</v>
       </c>
       <c r="C19">
-        <v>2.068207046541055</v>
+        <v>2.0682070465410551</v>
       </c>
       <c r="D19">
-        <v>0.2660848299662272</v>
+        <v>0.26608482996622718</v>
       </c>
       <c r="E19">
         <v>0.1121629504800891</v>
@@ -1468,22 +1546,34 @@
         <v>0.8637045369328834</v>
       </c>
       <c r="M19">
-        <v>0.8409900618788674</v>
+        <v>0.84099006187886738</v>
       </c>
       <c r="N19">
-        <v>0.8559909994374648</v>
+        <v>0.85599099943746482</v>
       </c>
       <c r="O19">
-        <v>0.8535618660830719</v>
+        <v>0.85356186608307194</v>
       </c>
       <c r="P19">
-        <v>0.00943088404781324</v>
+        <v>9.43088404781324E-3</v>
       </c>
       <c r="Q19">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>